--- a/Masters/Character/CharacterLevelMaster/ClassSchema.xlsx
+++ b/Masters/Character/CharacterLevelMaster/ClassSchema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\project\Aries-Master\Masters\Character\CharacterLevelMaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E6855D-71AD-4983-818B-BC62DCCE8653}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3AC921-B1A5-4C72-B2D2-B2120C714B76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9360" xr2:uid="{D010554B-594E-4258-A22D-8907CA064929}"/>
   </bookViews>
@@ -30,12 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>○</t>
-  </si>
-  <si>
-    <t>int</t>
   </si>
   <si>
     <t>ID</t>
@@ -61,6 +58,14 @@
   </si>
   <si>
     <t>exp</t>
+  </si>
+  <si>
+    <t>uint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ushort</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -505,7 +510,7 @@
   <dimension ref="A1:X34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -517,16 +522,16 @@
   <sheetData>
     <row r="1" spans="1:24" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -585,16 +590,16 @@
     </row>
     <row r="3" spans="1:24" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -619,16 +624,16 @@
     </row>
     <row r="4" spans="1:24" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>9</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
